--- a/Proyecto Final/Dataset.xlsx
+++ b/Proyecto Final/Dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\TEC\Proyecto Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\TEC\TEC\Proyecto Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE74B048-9D81-4A37-B704-ECF4B7D1C7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EA1E98-5C4B-45E4-91CB-D2FA815A4D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{49C29202-B701-4CC2-A13B-534FF1005C2A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="302">
   <si>
     <t>Visión</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Impacto (Estimación del beneficio para los Objetivos Estratégicos)</t>
-  </si>
-  <si>
-    <t>Arranque</t>
   </si>
   <si>
     <t>Fecha Fin</t>
@@ -380,11 +377,6 @@
 Año3: 3.3 MM</t>
   </si>
   <si>
-    <t>2023 Iniciado
-Piloto Q1 2024
-Inicio Proyecto Q2 2024</t>
-  </si>
-  <si>
     <t>IGR / Ingreso no Financieros 
 (Serv &amp; Com / Ingresos Totales)</t>
   </si>
@@ -1134,7 +1126,7 @@
     <t>STOS</t>
   </si>
   <si>
-    <t>Columna2</t>
+    <t>Fecha Inicio</t>
   </si>
 </sst>
 </file>
@@ -1193,10 +1185,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -1259,27 +1248,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BE0258EE-9898-4E6A-813E-51636835C9B9}" name="Tabla1" displayName="Tabla1" ref="A1:S98" totalsRowShown="0">
-  <autoFilter ref="A1:S98" xr:uid="{BE0258EE-9898-4E6A-813E-51636835C9B9}"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BE0258EE-9898-4E6A-813E-51636835C9B9}" name="Tabla1" displayName="Tabla1" ref="A1:R98" totalsRowShown="0">
+  <autoFilter ref="A1:R98" xr:uid="{BE0258EE-9898-4E6A-813E-51636835C9B9}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{02393032-DD8B-4FED-8509-0F4EFC521B0A}" name="Visión"/>
     <tableColumn id="2" xr3:uid="{D87815AF-7359-4E44-9A84-037BC3332A26}" name="GRAN APUESTA"/>
     <tableColumn id="3" xr3:uid="{1FC4DDB3-B054-45AC-9709-19E92E7A0535}" name="OBJETIVO ESTRATÉGICO"/>
-    <tableColumn id="19" xr3:uid="{78161EB2-A5AF-4AB0-A680-7AD5345C622D}" name="INICIATIVA" dataDxfId="9">
+    <tableColumn id="19" xr3:uid="{78161EB2-A5AF-4AB0-A680-7AD5345C622D}" name="INICIATIVA" dataDxfId="8">
       <calculatedColumnFormula array="1">INI_01</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4D1DD023-2754-4285-99CE-998C5BF16CDA}" name="Ejecutor(es)" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{4D1DD023-2754-4285-99CE-998C5BF16CDA}" name="Ejecutor(es)" dataDxfId="7"/>
     <tableColumn id="8" xr3:uid="{9A84E069-DAD6-4E3F-99E6-DBD2C8592DE4}" name="FTEs"/>
-    <tableColumn id="20" xr3:uid="{9A5A2135-F6FC-4DDD-B045-ED01517557B1}" name="CAPEX" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{C247FBA5-BBE7-4AB4-8BFF-AC91C5F17E8C}" name="Impacto (Estimación del beneficio para los Objetivos Estratégicos)" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{83AA637B-BF97-42AD-93F2-D76AB39AF21C}" name="Columna1" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{AA357F70-AF39-46C5-87F9-99BBF1635536}" name="Impacto Ingresos" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{9A5A2135-F6FC-4DDD-B045-ED01517557B1}" name="CAPEX" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{C247FBA5-BBE7-4AB4-8BFF-AC91C5F17E8C}" name="Impacto (Estimación del beneficio para los Objetivos Estratégicos)" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{83AA637B-BF97-42AD-93F2-D76AB39AF21C}" name="Columna1" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{AA357F70-AF39-46C5-87F9-99BBF1635536}" name="Impacto Ingresos" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{2682368B-3BD5-4B00-8C52-AFF61D74BD7E}" name="Impacto Ahorros"/>
     <tableColumn id="7" xr3:uid="{F7AFA335-AA6A-4E8D-BAA5-B3C8F609BDF7}" name="Impacto Tiempo"/>
-    <tableColumn id="22" xr3:uid="{F74E6A65-E01E-449C-9697-C38488261C6B}" name="Tiempo de Retorno" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{4544372F-B0D8-4ABB-90B6-D72DDEF82620}" name="Arranque" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{FDD76907-62EB-4844-AC73-614F68E44D41}" name="Fecha Fin" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{34C50CF6-375B-441B-B2BA-F0C2EAF00C9A}" name="Columna2" dataDxfId="0"/>
+    <tableColumn id="22" xr3:uid="{F74E6A65-E01E-449C-9697-C38488261C6B}" name="Tiempo de Retorno" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{4544372F-B0D8-4ABB-90B6-D72DDEF82620}" name="Fecha Inicio" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{FDD76907-62EB-4844-AC73-614F68E44D41}" name="Fecha Fin" dataDxfId="0"/>
     <tableColumn id="14" xr3:uid="{ED7E844D-532A-4018-8B9C-D52FA7802F8C}" name="Proyecto Activable"/>
     <tableColumn id="15" xr3:uid="{ED497C57-7D9D-4062-9033-16BBE52E4E3C}" name="Tiempo"/>
     <tableColumn id="18" xr3:uid="{182E8908-C78C-4B66-97BD-E280D6D0FA0B}" name="SELECCIONADO"/>
@@ -1605,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD808F03-7F19-403A-B214-CE60B4C176CE}">
-  <dimension ref="A1:S98"/>
+  <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E79" zoomScale="79" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="79" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1627,7 +1615,7 @@
     <col min="17" max="17" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1647,34 +1635,34 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K1" t="s">
+        <v>287</v>
+      </c>
+      <c r="L1" t="s">
         <v>288</v>
       </c>
-      <c r="J1" t="s">
-        <v>256</v>
-      </c>
-      <c r="K1" t="s">
-        <v>289</v>
-      </c>
-      <c r="L1" t="s">
-        <v>290</v>
-      </c>
       <c r="M1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" t="s">
         <v>8</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="Q1" t="s">
         <v>9</v>
@@ -1682,25 +1670,22 @@
       <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -1709,7 +1694,7 @@
         <v>49490100</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L2"/>
       <c r="M2">
@@ -1717,26 +1702,25 @@
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="S2" t="s">
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F3">
         <v>9</v>
@@ -1745,10 +1729,10 @@
         <v>10797840</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J3">
         <v>2800000</v>
@@ -1763,26 +1747,25 @@
       <c r="O3" s="2">
         <v>45658</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="S3" t="s">
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -1791,10 +1774,10 @@
         <v>10697860</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J4">
         <v>11000000</v>
@@ -1809,26 +1792,25 @@
       <c r="O4" s="2">
         <v>45658</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="S4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1837,35 +1819,34 @@
         <v>2999400</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="S5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F6">
         <v>7</v>
@@ -1874,10 +1855,10 @@
         <v>2519496</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J6">
         <v>2500000</v>
@@ -1892,26 +1873,25 @@
       <c r="O6" s="2">
         <v>45536</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="S6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F7">
         <v>42</v>
@@ -1920,11 +1900,11 @@
         <v>43878662.512000002</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -1932,32 +1912,31 @@
         <v>45292</v>
       </c>
       <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="P7" t="s">
+        <v>36</v>
+      </c>
       <c r="Q7" t="s">
         <v>37</v>
       </c>
       <c r="R7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="S7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1966,10 +1945,10 @@
         <v>1299740</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K8">
         <v>200000</v>
@@ -1982,26 +1961,25 @@
       <c r="O8" s="2">
         <v>45657</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="S8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9">
         <v>24</v>
@@ -2010,35 +1988,34 @@
         <v>39992000</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="S9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2047,10 +2024,10 @@
         <v>799840</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L10"/>
       <c r="M10"/>
@@ -2060,26 +2037,25 @@
       <c r="O10" s="2">
         <v>45657</v>
       </c>
-      <c r="P10" s="2"/>
-      <c r="S10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2088,10 +2064,10 @@
         <v>38110801.314999998</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J11">
         <v>35300000</v>
@@ -2101,31 +2077,30 @@
         <v>5</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O11" s="2">
         <v>45444</v>
       </c>
-      <c r="P11" s="2"/>
-      <c r="S11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12">
         <v>13</v>
@@ -2134,10 +2109,10 @@
         <v>26842261.673760001</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K12">
         <v>8500000</v>
@@ -2152,26 +2127,25 @@
       <c r="O12" s="2">
         <v>45627</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="S12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13">
         <v>11</v>
@@ -2180,10 +2154,10 @@
         <v>25540180.842020001</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J13">
         <v>480000</v>
@@ -2198,26 +2172,25 @@
       <c r="O13" s="2">
         <v>45627</v>
       </c>
-      <c r="P13" s="2"/>
-      <c r="S13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F14">
         <v>42</v>
@@ -2226,10 +2199,10 @@
         <v>23495300</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J14">
         <v>5580000</v>
@@ -2239,37 +2212,36 @@
         <v>5</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O14" s="2">
         <v>45627</v>
       </c>
-      <c r="P14" s="2"/>
+      <c r="P14" t="s">
+        <v>56</v>
+      </c>
       <c r="Q14" t="s">
         <v>57</v>
       </c>
       <c r="R14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2278,10 +2250,10 @@
         <v>149970</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L15"/>
       <c r="M15"/>
@@ -2291,26 +2263,25 @@
       <c r="O15" s="2">
         <v>45657</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="S15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16">
         <v>24</v>
@@ -2319,35 +2290,34 @@
         <v>19996000</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="S16" t="s">
+      <c r="R16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -2356,10 +2326,10 @@
         <v>16996600</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17">
@@ -2373,26 +2343,25 @@
       <c r="O17" s="2">
         <v>45474</v>
       </c>
-      <c r="P17" s="2"/>
-      <c r="S17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
         <v>61</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>62</v>
       </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -2401,10 +2370,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
@@ -2414,26 +2383,25 @@
       <c r="O18" s="2">
         <v>45627</v>
       </c>
-      <c r="P18" s="2"/>
-      <c r="S18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" t="s">
-        <v>66</v>
-      </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F19">
         <v>13</v>
@@ -2442,10 +2410,10 @@
         <v>16256748</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J19">
         <v>450000000</v>
@@ -2458,29 +2426,28 @@
         <v>45292</v>
       </c>
       <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
+      <c r="Q19" t="s">
+        <v>67</v>
+      </c>
       <c r="R19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
         <v>68</v>
       </c>
-      <c r="S19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>69</v>
-      </c>
       <c r="D20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20">
         <v>16</v>
@@ -2489,10 +2456,10 @@
         <v>15819481.070880001</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L20"/>
       <c r="M20"/>
@@ -2502,26 +2469,25 @@
       <c r="O20" s="2">
         <v>45627</v>
       </c>
-      <c r="P20" s="2"/>
-      <c r="S20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21">
         <v>12</v>
@@ -2530,35 +2496,34 @@
         <v>14997000</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="S21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
         <v>13</v>
       </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
       <c r="D22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -2567,10 +2532,10 @@
         <v>14997000</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K22">
         <v>1700000</v>
@@ -2583,26 +2548,25 @@
       <c r="O22" s="2">
         <v>45627</v>
       </c>
-      <c r="P22" s="2"/>
-      <c r="S22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
         <v>61</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>62</v>
       </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -2611,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
@@ -2624,26 +2588,25 @@
       <c r="O23" s="2">
         <v>45627</v>
       </c>
-      <c r="P23" s="2"/>
-      <c r="S23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
         <v>13</v>
       </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -2652,10 +2615,10 @@
         <v>14497100</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K24">
         <v>568000</v>
@@ -2668,26 +2631,25 @@
       <c r="O24" s="2">
         <v>45627</v>
       </c>
-      <c r="P24" s="2"/>
-      <c r="S24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
         <v>12</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>13</v>
       </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
       <c r="D25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -2696,10 +2658,10 @@
         <v>12997400</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -2709,26 +2671,25 @@
       <c r="O25" s="2">
         <v>45352</v>
       </c>
-      <c r="P25" s="2"/>
-      <c r="S25" t="s">
+      <c r="R25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>17</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>18</v>
       </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
       <c r="D26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F26">
         <v>15.75</v>
@@ -2737,10 +2698,10 @@
         <v>12687462</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J26">
         <v>2900000</v>
@@ -2749,32 +2710,31 @@
       <c r="M26">
         <v>3</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>77</v>
+      <c r="N26" s="2">
+        <v>44927</v>
       </c>
       <c r="O26" s="2">
-        <v>2026</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="S26" t="s">
+        <v>45658</v>
+      </c>
+      <c r="R26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>17</v>
       </c>
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F27">
         <v>13</v>
@@ -2783,10 +2743,10 @@
         <v>11997600</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J27">
         <v>11000000</v>
@@ -2801,26 +2761,25 @@
       <c r="O27" s="2">
         <v>45536</v>
       </c>
-      <c r="P27" s="2"/>
-      <c r="S27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
         <v>12</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>13</v>
       </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
       <c r="D28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F28">
         <v>16</v>
@@ -2829,10 +2788,10 @@
         <v>11997600</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28">
@@ -2848,26 +2807,25 @@
       <c r="O28" s="2">
         <v>45901</v>
       </c>
-      <c r="P28" s="2"/>
-      <c r="S28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>34</v>
       </c>
-      <c r="C29" t="s">
-        <v>35</v>
-      </c>
       <c r="D29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -2876,10 +2834,10 @@
         <v>10354598.665999999</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J29">
         <v>747562</v>
@@ -2894,29 +2852,28 @@
       <c r="O29" s="2">
         <v>45717</v>
       </c>
-      <c r="P29" s="2"/>
+      <c r="Q29" t="s">
+        <v>81</v>
+      </c>
       <c r="R29" t="s">
-        <v>83</v>
-      </c>
-      <c r="S29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>13</v>
       </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
       <c r="D30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30">
         <v>24</v>
@@ -2925,35 +2882,34 @@
         <v>9998000</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="S30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2962,10 +2918,10 @@
         <v>9898020</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J31">
         <v>511400</v>
@@ -2980,26 +2936,25 @@
       <c r="O31" s="2">
         <v>45657</v>
       </c>
-      <c r="P31" s="2"/>
-      <c r="S31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>13</v>
       </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
       <c r="D32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F32">
         <v>28</v>
@@ -3008,10 +2963,10 @@
         <v>8998200</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J32">
         <v>18200000</v>
@@ -3022,26 +2977,25 @@
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="S32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
         <v>27</v>
       </c>
-      <c r="C33" t="s">
-        <v>28</v>
-      </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F33">
         <v>36.25</v>
@@ -3050,10 +3004,10 @@
         <v>8310337.5999999996</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K33">
         <v>6000000</v>
@@ -3064,29 +3018,28 @@
         <v>45292</v>
       </c>
       <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
+      <c r="Q33" t="s">
+        <v>37</v>
+      </c>
       <c r="R33" t="s">
-        <v>38</v>
-      </c>
-      <c r="S33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34">
         <v>14.5</v>
@@ -3095,10 +3048,10 @@
         <v>7998400</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K34">
         <v>2400000</v>
@@ -3111,26 +3064,25 @@
       <c r="O34" s="2">
         <v>45627</v>
       </c>
-      <c r="P34" s="2"/>
-      <c r="S34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35">
         <v>29</v>
@@ -3139,10 +3091,10 @@
         <v>6548875.5628800001</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J35">
         <v>5790000</v>
@@ -3157,26 +3109,25 @@
       <c r="O35" s="2">
         <v>45627</v>
       </c>
-      <c r="P35" s="2"/>
-      <c r="S35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
         <v>12</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>13</v>
       </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
       <c r="D36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F36">
         <v>10</v>
@@ -3185,35 +3136,34 @@
         <v>6498700</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L36"/>
       <c r="M36"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="S36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
         <v>12</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>13</v>
       </c>
-      <c r="C37" t="s">
-        <v>14</v>
-      </c>
       <c r="D37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F37">
         <v>21</v>
@@ -3222,35 +3172,34 @@
         <v>4999000</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="S37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
         <v>12</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>13</v>
       </c>
-      <c r="C38" t="s">
-        <v>14</v>
-      </c>
       <c r="D38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F38">
         <v>21</v>
@@ -3259,35 +3208,34 @@
         <v>4999000</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="S38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
         <v>12</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>13</v>
       </c>
-      <c r="C39" t="s">
-        <v>14</v>
-      </c>
       <c r="D39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -3296,35 +3244,34 @@
         <v>4999000</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="S39" t="s">
+      <c r="R39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>17</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>18</v>
       </c>
-      <c r="C40" t="s">
-        <v>19</v>
-      </c>
       <c r="D40" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F40">
         <v>1.75</v>
@@ -3333,10 +3280,10 @@
         <v>4299140</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J40">
         <v>1000000</v>
@@ -3349,26 +3296,25 @@
       <c r="O40" s="2">
         <v>45536</v>
       </c>
-      <c r="P40" s="2"/>
-      <c r="S40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
         <v>34</v>
       </c>
-      <c r="C41" t="s">
-        <v>35</v>
-      </c>
       <c r="D41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -3377,10 +3323,10 @@
         <v>4049190</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J41">
         <v>113850</v>
@@ -3395,26 +3341,25 @@
       <c r="O41" s="2">
         <v>45657</v>
       </c>
-      <c r="P41" s="2"/>
-      <c r="S41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -3423,10 +3368,10 @@
         <v>3999200</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J42">
         <v>2545000</v>
@@ -3441,26 +3386,25 @@
       <c r="O42" s="2">
         <v>45536</v>
       </c>
-      <c r="P42" s="2"/>
-      <c r="S42" t="s">
+      <c r="R42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>17</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>18</v>
       </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
       <c r="D43" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -3469,10 +3413,10 @@
         <v>3599280</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J43">
         <v>4800000</v>
@@ -3487,26 +3431,25 @@
       <c r="O43" s="2">
         <v>45658</v>
       </c>
-      <c r="P43" s="2"/>
-      <c r="S43" t="s">
+      <c r="R43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>17</v>
-      </c>
       <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
         <v>50</v>
       </c>
-      <c r="C44" t="s">
-        <v>51</v>
-      </c>
       <c r="D44" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -3515,10 +3458,10 @@
         <v>2499500</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L44"/>
       <c r="M44"/>
@@ -3528,26 +3471,25 @@
       <c r="O44" s="2">
         <v>45536</v>
       </c>
-      <c r="P44" s="2"/>
-      <c r="S44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
         <v>62</v>
       </c>
-      <c r="C45" t="s">
-        <v>63</v>
-      </c>
       <c r="D45" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -3556,10 +3498,10 @@
         <v>1999600</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L45"/>
       <c r="M45"/>
@@ -3569,26 +3511,25 @@
       <c r="O45" s="2">
         <v>45505</v>
       </c>
-      <c r="P45" s="2"/>
-      <c r="S45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
         <v>18</v>
       </c>
-      <c r="C46" t="s">
-        <v>19</v>
-      </c>
       <c r="D46" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -3597,10 +3538,10 @@
         <v>1679664</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J46">
         <v>3500000</v>
@@ -3615,26 +3556,25 @@
       <c r="O46" s="2">
         <v>45352</v>
       </c>
-      <c r="P46" s="2"/>
-      <c r="S46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
         <v>12</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>13</v>
       </c>
-      <c r="C47" t="s">
-        <v>14</v>
-      </c>
       <c r="D47" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -3643,35 +3583,34 @@
         <v>999800</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="S47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D48" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3680,10 +3619,10 @@
         <v>699860</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J48">
         <v>135000</v>
@@ -3698,26 +3637,25 @@
       <c r="O48" s="2">
         <v>45383</v>
       </c>
-      <c r="P48" s="2"/>
-      <c r="S48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
         <v>12</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>13</v>
       </c>
-      <c r="C49" t="s">
-        <v>14</v>
-      </c>
       <c r="D49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3726,35 +3664,34 @@
         <v>249950</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L49"/>
       <c r="M49"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="S49" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
         <v>18</v>
       </c>
-      <c r="C50" t="s">
-        <v>19</v>
-      </c>
       <c r="D50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -3763,10 +3700,10 @@
         <v>0</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J50">
         <v>63000000</v>
@@ -3779,32 +3716,31 @@
         <v>45352</v>
       </c>
       <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
+      <c r="P50" t="s">
+        <v>107</v>
+      </c>
       <c r="Q50" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="R50" t="s">
-        <v>58</v>
-      </c>
-      <c r="S50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
         <v>18</v>
       </c>
-      <c r="C51" t="s">
-        <v>19</v>
-      </c>
       <c r="D51" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F51">
         <v>4</v>
@@ -3813,10 +3749,10 @@
         <v>0</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J51">
         <v>250000000</v>
@@ -3831,32 +3767,31 @@
       <c r="O51" s="2">
         <v>45627</v>
       </c>
-      <c r="P51" s="2"/>
+      <c r="P51" t="s">
+        <v>36</v>
+      </c>
       <c r="Q51" t="s">
         <v>37</v>
       </c>
       <c r="R51" t="s">
-        <v>38</v>
-      </c>
-      <c r="S51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D52" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -3865,10 +3800,10 @@
         <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L52"/>
       <c r="M52"/>
@@ -3878,26 +3813,25 @@
       <c r="O52" s="2">
         <v>45627</v>
       </c>
-      <c r="P52" s="2"/>
-      <c r="S52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -3906,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L53"/>
       <c r="M53"/>
@@ -3916,26 +3850,25 @@
       <c r="O53" s="2">
         <v>45443</v>
       </c>
-      <c r="P53" s="2"/>
-      <c r="S53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" t="s">
         <v>61</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>62</v>
       </c>
-      <c r="C54" t="s">
-        <v>63</v>
-      </c>
       <c r="D54" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -3944,10 +3877,10 @@
         <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L54"/>
       <c r="M54"/>
@@ -3957,26 +3890,25 @@
       <c r="O54" s="2">
         <v>45627</v>
       </c>
-      <c r="P54" s="2"/>
-      <c r="S54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -3985,10 +3917,10 @@
         <v>0</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L55"/>
       <c r="M55"/>
@@ -3996,26 +3928,25 @@
         <v>45292</v>
       </c>
       <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="S55" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -4024,10 +3955,10 @@
         <v>0</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L56"/>
       <c r="M56"/>
@@ -4035,26 +3966,25 @@
         <v>45352</v>
       </c>
       <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="S56" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -4063,10 +3993,10 @@
         <v>0</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L57"/>
       <c r="M57"/>
@@ -4076,26 +4006,25 @@
       <c r="O57" s="2">
         <v>45413</v>
       </c>
-      <c r="P57" s="2"/>
-      <c r="S57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D58" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -4104,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L58"/>
       <c r="M58"/>
@@ -4117,26 +4046,25 @@
       <c r="O58" s="2">
         <v>45444</v>
       </c>
-      <c r="P58" s="2"/>
-      <c r="S58" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" t="s">
         <v>33</v>
       </c>
-      <c r="B59" t="s">
-        <v>34</v>
-      </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D59" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F59">
         <v>15</v>
@@ -4145,11 +4073,11 @@
         <v>0</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L59"/>
       <c r="M59"/>
@@ -4159,26 +4087,25 @@
       <c r="O59" s="2">
         <v>45717</v>
       </c>
-      <c r="P59" s="2"/>
-      <c r="S59" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -4187,10 +4114,10 @@
         <v>0</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J60">
         <v>3400000</v>
@@ -4205,26 +4132,25 @@
       <c r="O60" s="2">
         <v>45627</v>
       </c>
-      <c r="P60" s="2"/>
-      <c r="S60" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D61" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F61">
         <v>10</v>
@@ -4234,7 +4160,7 @@
       </c>
       <c r="I61" s="1"/>
       <c r="J61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L61"/>
       <c r="M61"/>
@@ -4244,26 +4170,25 @@
       <c r="O61" s="2">
         <v>45444</v>
       </c>
-      <c r="P61" s="2"/>
-      <c r="S61" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
         <v>12</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>13</v>
       </c>
-      <c r="C62" t="s">
-        <v>14</v>
-      </c>
       <c r="D62" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F62">
         <v>15</v>
@@ -4272,35 +4197,34 @@
         <v>0</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L62"/>
       <c r="M62"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="S62" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
         <v>13</v>
       </c>
-      <c r="C63" t="s">
-        <v>14</v>
-      </c>
       <c r="D63" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -4309,34 +4233,31 @@
         <v>0</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L63"/>
       <c r="M63"/>
-      <c r="N63" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="S63" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
         <v>13</v>
       </c>
-      <c r="C64" t="s">
-        <v>14</v>
-      </c>
       <c r="D64" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4345,34 +4266,31 @@
         <v>0</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L64"/>
       <c r="M64"/>
-      <c r="N64" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="S64" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
         <v>12</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>13</v>
       </c>
-      <c r="C65" t="s">
-        <v>14</v>
-      </c>
       <c r="D65" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F65">
         <v>6</v>
@@ -4381,35 +4299,34 @@
         <v>0</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L65"/>
       <c r="M65"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="S65" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
         <v>12</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>13</v>
       </c>
-      <c r="C66" t="s">
-        <v>14</v>
-      </c>
       <c r="D66" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -4418,32 +4335,31 @@
         <v>0</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L66"/>
       <c r="M66"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="S66" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
         <v>12</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>13</v>
       </c>
-      <c r="C67" t="s">
-        <v>14</v>
-      </c>
       <c r="D67" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -4452,35 +4368,34 @@
         <v>0</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L67"/>
       <c r="M67"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="S67" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
         <v>12</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>13</v>
       </c>
-      <c r="C68" t="s">
-        <v>14</v>
-      </c>
       <c r="D68" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -4489,35 +4404,34 @@
         <v>0</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L68"/>
       <c r="M68"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="S68" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
         <v>12</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>13</v>
       </c>
-      <c r="C69" t="s">
-        <v>14</v>
-      </c>
       <c r="D69" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F69">
         <v>7</v>
@@ -4526,35 +4440,34 @@
         <v>0</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L69"/>
       <c r="M69"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="S69" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
         <v>12</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>13</v>
       </c>
-      <c r="C70" t="s">
-        <v>14</v>
-      </c>
       <c r="D70" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -4563,35 +4476,34 @@
         <v>0</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L70"/>
       <c r="M70"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="S70" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
         <v>12</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>13</v>
       </c>
-      <c r="C71" t="s">
-        <v>14</v>
-      </c>
       <c r="D71" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -4600,35 +4512,34 @@
         <v>0</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L71"/>
       <c r="M71"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="S71" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C72" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -4637,35 +4548,34 @@
         <v>0</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L72"/>
       <c r="M72"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="S72" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
         <v>13</v>
       </c>
-      <c r="C73" t="s">
-        <v>14</v>
-      </c>
       <c r="D73" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F73">
         <v>4.25</v>
@@ -4674,10 +4584,10 @@
         <v>0</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J73">
         <v>6500000</v>
@@ -4690,26 +4600,25 @@
         <v>45352</v>
       </c>
       <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="S73" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
         <v>12</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>13</v>
       </c>
-      <c r="C74" t="s">
-        <v>14</v>
-      </c>
       <c r="D74" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -4718,35 +4627,34 @@
         <v>0</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="S74" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
         <v>13</v>
       </c>
-      <c r="C75" t="s">
-        <v>14</v>
-      </c>
       <c r="D75" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -4755,32 +4663,31 @@
         <v>0</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L75"/>
       <c r="M75"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="S75" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B76" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" t="s">
         <v>34</v>
       </c>
-      <c r="C76" t="s">
-        <v>35</v>
-      </c>
       <c r="D76" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -4789,32 +4696,31 @@
         <v>0</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L76"/>
       <c r="M76"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="S76" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" t="s">
         <v>34</v>
       </c>
-      <c r="C77" t="s">
-        <v>35</v>
-      </c>
       <c r="D77" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -4823,11 +4729,11 @@
         <v>0</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L77"/>
       <c r="M77"/>
@@ -4837,29 +4743,28 @@
       <c r="O77" s="2">
         <v>45748</v>
       </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s">
-        <v>139</v>
-      </c>
-      <c r="S77" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P77" t="s">
+        <v>137</v>
+      </c>
+      <c r="R77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
         <v>12</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>13</v>
       </c>
-      <c r="C78" t="s">
-        <v>14</v>
-      </c>
       <c r="D78" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -4868,35 +4773,34 @@
         <v>0</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L78"/>
       <c r="M78"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="S78" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C79" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D79" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -4905,36 +4809,35 @@
         <v>0</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L79"/>
       <c r="M79"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="S79" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" t="s">
         <v>34</v>
       </c>
-      <c r="C80" t="s">
-        <v>35</v>
-      </c>
       <c r="D80" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -4943,32 +4846,31 @@
         <v>0</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L80"/>
       <c r="M80"/>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="S80" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" t="s">
         <v>34</v>
       </c>
-      <c r="C81" t="s">
-        <v>35</v>
-      </c>
       <c r="D81" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -4977,10 +4879,10 @@
         <v>0</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L81"/>
       <c r="M81"/>
@@ -4990,26 +4892,25 @@
       <c r="O81" s="2">
         <v>45627</v>
       </c>
-      <c r="P81" s="2"/>
-      <c r="S81" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
         <v>12</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>13</v>
       </c>
-      <c r="C82" t="s">
-        <v>14</v>
-      </c>
       <c r="D82" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F82">
         <v>21</v>
@@ -5018,35 +4919,34 @@
         <v>0</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L82"/>
       <c r="M82"/>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="S82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
         <v>12</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>13</v>
       </c>
-      <c r="C83" t="s">
-        <v>14</v>
-      </c>
       <c r="D83" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F83">
         <v>6</v>
@@ -5055,35 +4955,34 @@
         <v>0</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L83"/>
       <c r="M83"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="S83" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D84" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F84">
         <v>13</v>
@@ -5092,11 +4991,11 @@
         <v>0</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L84"/>
       <c r="M84"/>
@@ -5106,26 +5005,25 @@
       <c r="O84" s="2">
         <v>45627</v>
       </c>
-      <c r="P84" s="2"/>
-      <c r="S84" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
         <v>12</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>13</v>
       </c>
-      <c r="C85" t="s">
-        <v>14</v>
-      </c>
       <c r="D85" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F85">
         <v>3</v>
@@ -5134,32 +5032,31 @@
         <v>0</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L85"/>
       <c r="M85"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
-      <c r="S85" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D86" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -5168,10 +5065,10 @@
         <v>0</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J86">
         <v>30000000</v>
@@ -5182,23 +5079,22 @@
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
-      <c r="S86" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -5207,10 +5103,10 @@
         <v>0</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J87">
         <v>65000000</v>
@@ -5221,29 +5117,28 @@
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="Q87">
+      <c r="P87">
         <v>4</v>
       </c>
-      <c r="S87" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D88" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -5252,32 +5147,31 @@
         <v>0</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L88"/>
       <c r="M88"/>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="S88" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" t="s">
         <v>34</v>
       </c>
-      <c r="C89" t="s">
-        <v>35</v>
-      </c>
       <c r="D89" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -5286,11 +5180,11 @@
         <v>0</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I89" s="1"/>
       <c r="J89" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L89"/>
       <c r="M89"/>
@@ -5300,26 +5194,25 @@
       <c r="O89" s="2">
         <v>45658</v>
       </c>
-      <c r="P89" s="2"/>
-      <c r="S89" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D90" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -5328,10 +5221,10 @@
         <v>0</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J90">
         <v>10000000</v>
@@ -5342,26 +5235,25 @@
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="S90" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C91" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D91" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -5370,10 +5262,10 @@
         <v>0</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J91">
         <v>60000000</v>
@@ -5383,29 +5275,28 @@
         <v>1</v>
       </c>
       <c r="N91" s="2">
-        <v>2023</v>
+        <v>44927</v>
       </c>
       <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="S91" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C92" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D92" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F92">
         <v>2.5</v>
@@ -5414,10 +5305,10 @@
         <v>0</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92">
@@ -5433,26 +5324,25 @@
       <c r="O92" s="2">
         <v>45627</v>
       </c>
-      <c r="P92" s="2"/>
-      <c r="S92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C93" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D93" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F93">
         <v>1.25</v>
@@ -5461,10 +5351,10 @@
         <v>0</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J93">
         <v>240000</v>
@@ -5479,26 +5369,25 @@
       <c r="O93" s="2">
         <v>45323</v>
       </c>
-      <c r="P93" s="2"/>
-      <c r="S93" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D94" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F94">
         <v>0.5</v>
@@ -5507,10 +5396,10 @@
         <v>0</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J94">
         <v>720000</v>
@@ -5525,26 +5414,25 @@
       <c r="O94" s="2">
         <v>45627</v>
       </c>
-      <c r="P94" s="2"/>
-      <c r="S94" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C95" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D95" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F95">
         <v>4</v>
@@ -5553,10 +5441,10 @@
         <v>0</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J95">
         <v>812000</v>
@@ -5571,26 +5459,25 @@
       <c r="O95" s="2">
         <v>45627</v>
       </c>
-      <c r="P95" s="2"/>
-      <c r="S95" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C96" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D96" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F96">
         <v>8</v>
@@ -5599,10 +5486,10 @@
         <v>0</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J96">
         <v>80000000</v>
@@ -5615,26 +5502,25 @@
         <v>45352</v>
       </c>
       <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
+      <c r="Q96" t="s">
+        <v>37</v>
+      </c>
       <c r="R96" t="s">
-        <v>38</v>
-      </c>
-      <c r="S96" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D97" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -5643,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L97"/>
       <c r="M97"/>
@@ -5651,23 +5537,22 @@
         <v>45292</v>
       </c>
       <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="S97" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B98" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D98" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -5676,10 +5561,10 @@
         <v>0</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J98">
         <v>2500000</v>
@@ -5690,9 +5575,8 @@
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="S98" t="s">
-        <v>16</v>
+      <c r="R98" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto Final/Dataset.xlsx
+++ b/Proyecto Final/Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\TEC\TEC\Proyecto Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EA1E98-5C4B-45E4-91CB-D2FA815A4D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9405F2-501B-4003-8987-717945A3A839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{49C29202-B701-4CC2-A13B-534FF1005C2A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="300">
   <si>
     <t>Visión</t>
   </si>
@@ -117,9 +117,6 @@
 Año 3: 5.4 MM
 Año 4: 6.3 MM
 Otros Ingresos netos por datos (Principalmente seguros, comisiones de dealers y vendedores de vehículos)</t>
-  </si>
-  <si>
-    <t>Q3 2024</t>
   </si>
   <si>
     <t>Presupuesto de Proyecto</t>
@@ -275,9 +272,6 @@
 - VAN CDV: $5,58M (5 años) 
 - Incremental ingresos Acumulados PyR: $12,6M en 5 años
 </t>
-  </si>
-  <si>
-    <t>Q2-23</t>
   </si>
   <si>
     <t>SI (Cash, Cadenas Valor)</t>
@@ -1596,7 +1590,7 @@
   <dimension ref="A1:R98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="79" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1635,28 +1629,28 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L1" t="s">
         <v>286</v>
       </c>
-      <c r="J1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K1" t="s">
-        <v>287</v>
-      </c>
-      <c r="L1" t="s">
-        <v>288</v>
-      </c>
       <c r="M1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>7</v>
@@ -1682,7 +1676,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -1694,7 +1688,7 @@
         <v>49490100</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L2"/>
       <c r="M2">
@@ -1717,7 +1711,7 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
@@ -1732,7 +1726,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J3">
         <v>2800000</v>
@@ -1762,7 +1756,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>22</v>
@@ -1777,7 +1771,7 @@
         <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J4">
         <v>11000000</v>
@@ -1798,19 +1792,19 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1819,10 +1813,10 @@
         <v>2999400</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
@@ -1840,13 +1834,13 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F6">
         <v>7</v>
@@ -1855,10 +1849,10 @@
         <v>2519496</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J6">
         <v>2500000</v>
@@ -1879,19 +1873,19 @@
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F7">
         <v>42</v>
@@ -1900,12 +1894,9 @@
         <v>43878662.512000002</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" t="s">
-        <v>128</v>
-      </c>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7" s="2">
@@ -1913,10 +1904,10 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="s">
         <v>36</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>37</v>
       </c>
       <c r="R7" t="s">
         <v>15</v>
@@ -1924,19 +1915,19 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1945,10 +1936,10 @@
         <v>1299740</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K8">
         <v>200000</v>
@@ -1976,10 +1967,10 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9">
         <v>24</v>
@@ -1988,10 +1979,10 @@
         <v>39992000</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
@@ -2003,19 +1994,19 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2024,10 +2015,10 @@
         <v>799840</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L10"/>
       <c r="M10"/>
@@ -2043,7 +2034,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -2052,10 +2043,10 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2064,10 +2055,10 @@
         <v>38110801.314999998</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J11">
         <v>35300000</v>
@@ -2076,8 +2067,8 @@
       <c r="M11">
         <v>5</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>24</v>
+      <c r="N11" s="2">
+        <v>45108</v>
       </c>
       <c r="O11" s="2">
         <v>45444</v>
@@ -2088,19 +2079,19 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
       <c r="D12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12">
         <v>13</v>
@@ -2109,10 +2100,10 @@
         <v>26842261.673760001</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K12">
         <v>8500000</v>
@@ -2133,19 +2124,19 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <v>11</v>
@@ -2154,10 +2145,10 @@
         <v>25540180.842020001</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J13">
         <v>480000</v>
@@ -2178,7 +2169,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -2187,10 +2178,10 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F14">
         <v>42</v>
@@ -2199,10 +2190,10 @@
         <v>23495300</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J14">
         <v>5580000</v>
@@ -2211,17 +2202,17 @@
       <c r="M14">
         <v>5</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>55</v>
+      <c r="N14" s="2">
+        <v>45017</v>
       </c>
       <c r="O14" s="2">
         <v>45627</v>
       </c>
       <c r="P14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R14" t="s">
         <v>15</v>
@@ -2229,19 +2220,19 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2250,10 +2241,10 @@
         <v>149970</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L15"/>
       <c r="M15"/>
@@ -2278,10 +2269,10 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F16">
         <v>24</v>
@@ -2290,10 +2281,10 @@
         <v>19996000</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L16"/>
       <c r="M16"/>
@@ -2314,10 +2305,10 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -2326,10 +2317,10 @@
         <v>16996600</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17">
@@ -2349,19 +2340,19 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
       <c r="D18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -2370,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
@@ -2389,19 +2380,19 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F19">
         <v>13</v>
@@ -2410,10 +2401,10 @@
         <v>16256748</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J19">
         <v>450000000</v>
@@ -2427,7 +2418,7 @@
       </c>
       <c r="O19" s="2"/>
       <c r="Q19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R19" t="s">
         <v>15</v>
@@ -2435,19 +2426,19 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20">
         <v>16</v>
@@ -2456,10 +2447,10 @@
         <v>15819481.070880001</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L20"/>
       <c r="M20"/>
@@ -2484,10 +2475,10 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F21">
         <v>12</v>
@@ -2496,10 +2487,10 @@
         <v>14997000</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L21"/>
       <c r="M21"/>
@@ -2511,7 +2502,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -2520,10 +2511,10 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -2532,10 +2523,10 @@
         <v>14997000</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K22">
         <v>1700000</v>
@@ -2554,19 +2545,19 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
         <v>60</v>
       </c>
-      <c r="B23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -2575,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
@@ -2594,7 +2585,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
@@ -2603,10 +2594,10 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -2615,10 +2606,10 @@
         <v>14497100</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K24">
         <v>568000</v>
@@ -2646,10 +2637,10 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -2658,10 +2649,10 @@
         <v>12997400</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -2686,10 +2677,10 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F26">
         <v>15.75</v>
@@ -2698,10 +2689,10 @@
         <v>12687462</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J26">
         <v>2900000</v>
@@ -2728,13 +2719,13 @@
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F27">
         <v>13</v>
@@ -2743,10 +2734,10 @@
         <v>11997600</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J27">
         <v>11000000</v>
@@ -2776,10 +2767,10 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F28">
         <v>16</v>
@@ -2788,10 +2779,10 @@
         <v>11997600</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28">
@@ -2802,7 +2793,7 @@
         <v>3</v>
       </c>
       <c r="N28" s="2">
-        <v>2023</v>
+        <v>44927</v>
       </c>
       <c r="O28" s="2">
         <v>45901</v>
@@ -2813,19 +2804,19 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>33</v>
       </c>
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -2834,10 +2825,10 @@
         <v>10354598.665999999</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J29">
         <v>747562</v>
@@ -2853,7 +2844,7 @@
         <v>45717</v>
       </c>
       <c r="Q29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R29" t="s">
         <v>15</v>
@@ -2870,10 +2861,10 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30">
         <v>24</v>
@@ -2882,10 +2873,10 @@
         <v>9998000</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -2897,19 +2888,19 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2918,10 +2909,10 @@
         <v>9898020</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J31">
         <v>511400</v>
@@ -2951,10 +2942,10 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F32">
         <v>28</v>
@@ -2963,10 +2954,10 @@
         <v>8998200</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J32">
         <v>18200000</v>
@@ -2983,19 +2974,19 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
         <v>26</v>
       </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
       <c r="D33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F33">
         <v>36.25</v>
@@ -3004,10 +2995,10 @@
         <v>8310337.5999999996</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K33">
         <v>6000000</v>
@@ -3019,7 +3010,7 @@
       </c>
       <c r="O33" s="2"/>
       <c r="Q33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R33" t="s">
         <v>15</v>
@@ -3027,19 +3018,19 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34">
         <v>14.5</v>
@@ -3048,10 +3039,10 @@
         <v>7998400</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K34">
         <v>2400000</v>
@@ -3070,19 +3061,19 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F35">
         <v>29</v>
@@ -3091,10 +3082,10 @@
         <v>6548875.5628800001</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J35">
         <v>5790000</v>
@@ -3124,10 +3115,10 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F36">
         <v>10</v>
@@ -3136,10 +3127,10 @@
         <v>6498700</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L36"/>
       <c r="M36"/>
@@ -3160,10 +3151,10 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F37">
         <v>21</v>
@@ -3172,10 +3163,10 @@
         <v>4999000</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L37"/>
       <c r="M37"/>
@@ -3196,10 +3187,10 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F38">
         <v>21</v>
@@ -3208,10 +3199,10 @@
         <v>4999000</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L38"/>
       <c r="M38"/>
@@ -3232,10 +3223,10 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -3244,10 +3235,10 @@
         <v>4999000</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L39"/>
       <c r="M39"/>
@@ -3268,10 +3259,10 @@
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F40">
         <v>1.75</v>
@@ -3280,10 +3271,10 @@
         <v>4299140</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J40">
         <v>1000000</v>
@@ -3302,19 +3293,19 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
         <v>33</v>
       </c>
-      <c r="C41" t="s">
-        <v>34</v>
-      </c>
       <c r="D41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -3323,10 +3314,10 @@
         <v>4049190</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J41">
         <v>113850</v>
@@ -3347,19 +3338,19 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -3368,10 +3359,10 @@
         <v>3999200</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J42">
         <v>2545000</v>
@@ -3401,10 +3392,10 @@
         <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -3413,10 +3404,10 @@
         <v>3599280</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J43">
         <v>4800000</v>
@@ -3440,16 +3431,16 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
         <v>49</v>
       </c>
-      <c r="C44" t="s">
-        <v>50</v>
-      </c>
       <c r="D44" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -3458,10 +3449,10 @@
         <v>2499500</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L44"/>
       <c r="M44"/>
@@ -3477,19 +3468,19 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -3498,10 +3489,10 @@
         <v>1999600</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L45"/>
       <c r="M45"/>
@@ -3517,7 +3508,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
@@ -3526,10 +3517,10 @@
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -3538,10 +3529,10 @@
         <v>1679664</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J46">
         <v>3500000</v>
@@ -3571,10 +3562,10 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -3583,10 +3574,10 @@
         <v>999800</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L47"/>
       <c r="M47"/>
@@ -3598,19 +3589,19 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48" t="s">
         <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D48" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3619,10 +3610,10 @@
         <v>699860</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J48">
         <v>135000</v>
@@ -3652,10 +3643,10 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3664,10 +3655,10 @@
         <v>249950</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L49"/>
       <c r="M49"/>
@@ -3679,7 +3670,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
@@ -3688,10 +3679,10 @@
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -3700,10 +3691,10 @@
         <v>0</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J50">
         <v>63000000</v>
@@ -3717,10 +3708,10 @@
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R50" t="s">
         <v>15</v>
@@ -3728,7 +3719,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
         <v>17</v>
@@ -3737,10 +3728,10 @@
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F51">
         <v>4</v>
@@ -3749,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J51">
         <v>250000000</v>
@@ -3768,10 +3759,10 @@
         <v>45627</v>
       </c>
       <c r="P51" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q51" t="s">
         <v>36</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>37</v>
       </c>
       <c r="R51" t="s">
         <v>15</v>
@@ -3779,19 +3770,19 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D52" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -3800,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L52"/>
       <c r="M52"/>
@@ -3819,19 +3810,19 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -3840,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L53"/>
       <c r="M53"/>
@@ -3856,19 +3847,19 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
         <v>60</v>
       </c>
-      <c r="B54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" t="s">
-        <v>62</v>
-      </c>
       <c r="D54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -3877,10 +3868,10 @@
         <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L54"/>
       <c r="M54"/>
@@ -3896,19 +3887,19 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D55" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -3917,10 +3908,10 @@
         <v>0</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L55"/>
       <c r="M55"/>
@@ -3934,19 +3925,19 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -3955,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L56"/>
       <c r="M56"/>
@@ -3972,19 +3963,19 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
         <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D57" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -3993,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L57"/>
       <c r="M57"/>
@@ -4012,19 +4003,19 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D58" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -4033,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L58"/>
       <c r="M58"/>
@@ -4052,19 +4043,19 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" t="s">
         <v>32</v>
       </c>
-      <c r="B59" t="s">
-        <v>33</v>
-      </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D59" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F59">
         <v>15</v>
@@ -4073,12 +4064,9 @@
         <v>0</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I59" s="1"/>
-      <c r="J59" t="s">
-        <v>128</v>
-      </c>
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59" s="2">
@@ -4093,19 +4081,19 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -4114,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J60">
         <v>3400000</v>
@@ -4138,19 +4126,19 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
         <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F61">
         <v>10</v>
@@ -4159,9 +4147,6 @@
         <v>0</v>
       </c>
       <c r="I61" s="1"/>
-      <c r="J61" t="s">
-        <v>128</v>
-      </c>
       <c r="L61"/>
       <c r="M61"/>
       <c r="N61" s="2">
@@ -4171,7 +4156,7 @@
         <v>45444</v>
       </c>
       <c r="R61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
@@ -4185,10 +4170,10 @@
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F62">
         <v>15</v>
@@ -4197,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L62"/>
       <c r="M62"/>
@@ -4212,7 +4197,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
@@ -4221,10 +4206,10 @@
         <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -4233,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L63"/>
       <c r="M63"/>
@@ -4245,7 +4230,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
@@ -4254,10 +4239,10 @@
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4266,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L64"/>
       <c r="M64"/>
@@ -4287,10 +4272,10 @@
         <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F65">
         <v>6</v>
@@ -4299,10 +4284,10 @@
         <v>0</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L65"/>
       <c r="M65"/>
@@ -4323,10 +4308,10 @@
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -4335,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L66"/>
       <c r="M66"/>
@@ -4356,10 +4341,10 @@
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -4368,10 +4353,10 @@
         <v>0</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L67"/>
       <c r="M67"/>
@@ -4392,10 +4377,10 @@
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -4404,10 +4389,10 @@
         <v>0</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L68"/>
       <c r="M68"/>
@@ -4428,10 +4413,10 @@
         <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69">
         <v>7</v>
@@ -4440,10 +4425,10 @@
         <v>0</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L69"/>
       <c r="M69"/>
@@ -4464,10 +4449,10 @@
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -4476,10 +4461,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L70"/>
       <c r="M70"/>
@@ -4500,10 +4485,10 @@
         <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -4512,10 +4497,10 @@
         <v>0</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L71"/>
       <c r="M71"/>
@@ -4527,19 +4512,19 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D72" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -4548,10 +4533,10 @@
         <v>0</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L72"/>
       <c r="M72"/>
@@ -4563,7 +4548,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
@@ -4572,10 +4557,10 @@
         <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F73">
         <v>4.25</v>
@@ -4584,10 +4569,10 @@
         <v>0</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J73">
         <v>6500000</v>
@@ -4615,10 +4600,10 @@
         <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -4627,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L74"/>
       <c r="M74"/>
@@ -4642,7 +4627,7 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B75" t="s">
         <v>12</v>
@@ -4651,10 +4636,10 @@
         <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -4663,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L75"/>
       <c r="M75"/>
@@ -4675,19 +4660,19 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" t="s">
         <v>33</v>
       </c>
-      <c r="C76" t="s">
-        <v>34</v>
-      </c>
       <c r="D76" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -4696,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L76"/>
       <c r="M76"/>
@@ -4708,19 +4693,19 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" t="s">
         <v>33</v>
       </c>
-      <c r="C77" t="s">
-        <v>34</v>
-      </c>
       <c r="D77" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -4729,12 +4714,9 @@
         <v>0</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I77" s="1"/>
-      <c r="J77" t="s">
-        <v>128</v>
-      </c>
       <c r="L77"/>
       <c r="M77"/>
       <c r="N77" s="2">
@@ -4744,7 +4726,7 @@
         <v>45748</v>
       </c>
       <c r="P77" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="R77" t="s">
         <v>21</v>
@@ -4761,10 +4743,10 @@
         <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -4773,10 +4755,10 @@
         <v>0</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L78"/>
       <c r="M78"/>
@@ -4788,19 +4770,19 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C79" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D79" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -4809,12 +4791,9 @@
         <v>0</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I79" s="1"/>
-      <c r="J79" t="s">
-        <v>128</v>
-      </c>
       <c r="L79"/>
       <c r="M79"/>
       <c r="N79" s="2"/>
@@ -4825,19 +4804,19 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" t="s">
         <v>33</v>
       </c>
-      <c r="C80" t="s">
-        <v>34</v>
-      </c>
       <c r="D80" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -4846,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L80"/>
       <c r="M80"/>
@@ -4858,19 +4837,19 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" t="s">
         <v>33</v>
       </c>
-      <c r="C81" t="s">
-        <v>34</v>
-      </c>
       <c r="D81" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -4879,10 +4858,10 @@
         <v>0</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L81"/>
       <c r="M81"/>
@@ -4907,10 +4886,10 @@
         <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F82">
         <v>21</v>
@@ -4919,10 +4898,10 @@
         <v>0</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L82"/>
       <c r="M82"/>
@@ -4943,10 +4922,10 @@
         <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F83">
         <v>6</v>
@@ -4955,10 +4934,10 @@
         <v>0</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L83"/>
       <c r="M83"/>
@@ -4970,19 +4949,19 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C84" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D84" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F84">
         <v>13</v>
@@ -4991,12 +4970,9 @@
         <v>0</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I84" s="1"/>
-      <c r="J84" t="s">
-        <v>128</v>
-      </c>
       <c r="L84"/>
       <c r="M84"/>
       <c r="N84" s="2">
@@ -5020,10 +4996,10 @@
         <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F85">
         <v>3</v>
@@ -5032,10 +5008,10 @@
         <v>0</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L85"/>
       <c r="M85"/>
@@ -5047,16 +5023,16 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D86" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -5065,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J86">
         <v>30000000</v>
@@ -5085,16 +5061,16 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D87" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -5103,10 +5079,10 @@
         <v>0</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J87">
         <v>65000000</v>
@@ -5126,19 +5102,19 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C88" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D88" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -5147,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L88"/>
       <c r="M88"/>
@@ -5159,19 +5135,19 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" t="s">
         <v>33</v>
       </c>
-      <c r="C89" t="s">
-        <v>34</v>
-      </c>
       <c r="D89" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -5180,12 +5156,9 @@
         <v>0</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I89" s="1"/>
-      <c r="J89" t="s">
-        <v>128</v>
-      </c>
       <c r="L89"/>
       <c r="M89"/>
       <c r="N89" s="2">
@@ -5200,19 +5173,19 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C90" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D90" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -5221,10 +5194,10 @@
         <v>0</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J90">
         <v>10000000</v>
@@ -5241,19 +5214,19 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C91" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D91" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -5262,10 +5235,10 @@
         <v>0</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J91">
         <v>60000000</v>
@@ -5284,19 +5257,19 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C92" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D92" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F92">
         <v>2.5</v>
@@ -5305,10 +5278,10 @@
         <v>0</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92">
@@ -5330,19 +5303,19 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C93" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D93" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F93">
         <v>1.25</v>
@@ -5351,10 +5324,10 @@
         <v>0</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J93">
         <v>240000</v>
@@ -5375,19 +5348,19 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C94" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D94" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F94">
         <v>0.5</v>
@@ -5396,10 +5369,10 @@
         <v>0</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J94">
         <v>720000</v>
@@ -5420,19 +5393,19 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C95" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D95" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F95">
         <v>4</v>
@@ -5441,10 +5414,10 @@
         <v>0</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J95">
         <v>812000</v>
@@ -5465,19 +5438,19 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B96" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C96" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D96" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F96">
         <v>8</v>
@@ -5486,10 +5459,10 @@
         <v>0</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J96">
         <v>80000000</v>
@@ -5503,7 +5476,7 @@
       </c>
       <c r="O96" s="2"/>
       <c r="Q96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R96" t="s">
         <v>15</v>
@@ -5511,16 +5484,16 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B97" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D97" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -5529,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L97"/>
       <c r="M97"/>
@@ -5543,16 +5516,16 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B98" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D98" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -5561,10 +5534,10 @@
         <v>0</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J98">
         <v>2500000</v>
